--- a/data/Colombia/2017/excel_files/Epi-1.xlsx
+++ b/data/Colombia/2017/excel_files/Epi-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZikNet\COLOMBIADATA\2016\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\ziknet-trends-backend\data\Colombia\2017\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEBCBE4-B62F-4AAC-950C-51877A8BA04D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179574ED-3D17-44C1-83CE-E112B09A6542}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{17CE0062-384C-4FCB-9954-92EBE6D5146A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Total</t>
   </si>
@@ -48,271 +48,138 @@
     <t>Casos sospechosos de municipios sin confirmación</t>
   </si>
   <si>
-    <t xml:space="preserve">25,3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 988 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,3 </t>
-  </si>
-  <si>
-    <t>14,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUNDINAMARCA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 643 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,2 </t>
-  </si>
-  <si>
-    <t>7,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRANQUILLA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 396 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,9 </t>
-  </si>
-  <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUILA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,2 </t>
-  </si>
-  <si>
-    <t>5,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA MARTA D.E. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOLIMA </t>
-  </si>
-  <si>
     <t xml:space="preserve">6,1 </t>
   </si>
   <si>
-    <t xml:space="preserve">7,7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUCRE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORDOBA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAN ANDRES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARTAGENA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTICO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOLIVAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGDALENA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CESAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTIOQUIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUAJIRA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RISARALDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALDAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANTANDER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUTUMAYO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASANARE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOYACA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAQUETA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOGOTA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALLE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAUCA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">META </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARIÑO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTERIOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAZONAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUINDIO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAUCA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VICHADA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUAINIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUAVIARE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOCO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAUPES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total general </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 837 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 918 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORTE SANTANDER </t>
+    <t xml:space="preserve">Valle del Cauca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huila </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caldas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santander </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlántico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartagena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cauca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antioquia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arauca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sucre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risaralda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolívar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyacá </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desconocido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norte de Santander </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cundinamarca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barranquilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casanare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Marta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magdalena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caquetá </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés,
+Providencia y Santa
+Catalina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Guajira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Putumayo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buenaventura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quindío </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazonas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guaviare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nariño </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vichada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guainía </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaupés </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86,8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,2 </t>
   </si>
 </sst>
 </file>
@@ -700,7 +567,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,961 +608,961 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="B2" s="8">
-        <v>196</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="8">
-        <v>269</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
       </c>
       <c r="H2" s="13">
-        <v>2453</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8">
-        <v>44</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="8">
-        <v>137</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>20</v>
       </c>
       <c r="H3" s="13">
-        <v>1824</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>19</v>
+      <c r="G4" s="5">
+        <v>0</v>
       </c>
       <c r="H4" s="13">
-        <v>1402</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B5" s="8">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
       </c>
       <c r="D5" s="8">
-        <v>888</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F5" s="8">
-        <v>103</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
       </c>
       <c r="H5" s="13">
-        <v>1005</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B6" s="8">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
       </c>
       <c r="D6" s="8">
-        <v>905</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
+      <c r="G6" s="5">
+        <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>909</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8">
-        <v>44</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
       </c>
       <c r="D7" s="8">
-        <v>659</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
       </c>
       <c r="F7" s="8">
-        <v>147</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>20</v>
       </c>
       <c r="H7" s="8">
-        <v>850</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B8" s="8">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
       </c>
       <c r="D8" s="8">
-        <v>611</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F8" s="8">
-        <v>145</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
       </c>
       <c r="H8" s="8">
-        <v>784</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B9" s="8">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
       </c>
       <c r="D9" s="8">
-        <v>574</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
       </c>
       <c r="F9" s="8">
-        <v>181</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>20</v>
       </c>
       <c r="H9" s="8">
-        <v>761</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B10" s="8">
-        <v>53</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
       </c>
       <c r="D10" s="8">
-        <v>630</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
       </c>
       <c r="F10" s="8">
-        <v>3</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>686</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8">
-        <v>52</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
       </c>
       <c r="D11" s="8">
-        <v>622</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>27</v>
+      <c r="G11" s="5">
+        <v>0</v>
       </c>
       <c r="H11" s="8">
-        <v>674</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
       </c>
       <c r="D12" s="8">
-        <v>178</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
       </c>
       <c r="F12" s="8">
-        <v>392</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
       </c>
       <c r="H12" s="8">
-        <v>577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8">
-        <v>91</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
       </c>
       <c r="D13" s="8">
-        <v>328</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3</v>
       </c>
       <c r="F13" s="8">
-        <v>80</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
       </c>
       <c r="H13" s="8">
-        <v>499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8">
         <v>0</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
+      <c r="C14" s="5">
+        <v>0</v>
       </c>
       <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
       </c>
       <c r="F14" s="8">
-        <v>296</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
       </c>
       <c r="H14" s="8">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
       </c>
       <c r="D15" s="8">
-        <v>127</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
       </c>
       <c r="F15" s="8">
-        <v>18</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
       </c>
       <c r="H15" s="8">
-        <v>152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8">
-        <v>75</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
       </c>
       <c r="D16" s="8">
-        <v>42</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
       </c>
       <c r="F16" s="8">
-        <v>13</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
       </c>
       <c r="H16" s="8">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
       </c>
       <c r="D17" s="8">
-        <v>78</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
       </c>
       <c r="F17" s="8">
-        <v>36</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>20</v>
       </c>
       <c r="H17" s="8">
-        <v>117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8">
-        <v>31</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
       </c>
       <c r="D18" s="8">
-        <v>34</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
       </c>
       <c r="F18" s="8">
-        <v>3</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
       </c>
       <c r="H18" s="8">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B19" s="8">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
       </c>
       <c r="D19" s="8">
-        <v>29</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
       </c>
       <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
       </c>
       <c r="H19" s="8">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B20" s="8">
-        <v>13</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>69</v>
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
       </c>
       <c r="D20" s="8">
-        <v>9</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
       </c>
       <c r="F20" s="8">
-        <v>18</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
       </c>
       <c r="H20" s="8">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B21" s="8">
-        <v>24</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
       </c>
       <c r="D21" s="8">
-        <v>14</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
       </c>
       <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
       </c>
       <c r="H21" s="8">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B22" s="8">
-        <v>7</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
       </c>
       <c r="D22" s="8">
-        <v>24</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
       </c>
       <c r="F22" s="8">
-        <v>6</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
       </c>
       <c r="H22" s="8">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B23" s="8">
-        <v>24</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
       </c>
       <c r="D23" s="8">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
       </c>
       <c r="F23" s="8">
-        <v>2</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
       </c>
       <c r="H23" s="8">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B24" s="8">
-        <v>4</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
       </c>
       <c r="D24" s="8">
-        <v>23</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
       </c>
       <c r="F24" s="8">
-        <v>4</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
       </c>
       <c r="H24" s="8">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B25" s="8">
         <v>0</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>27</v>
+      <c r="C25" s="5">
+        <v>0</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>27</v>
+      <c r="E25" s="5">
+        <v>0</v>
       </c>
       <c r="F25" s="8">
-        <v>24</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>76</v>
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
       </c>
       <c r="H25" s="8">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B26" s="8">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
       </c>
       <c r="D26" s="8">
-        <v>11</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
       </c>
       <c r="F26" s="8">
-        <v>8</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
       </c>
       <c r="H26" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B27" s="8">
-        <v>7</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
       </c>
       <c r="D27" s="8">
-        <v>9</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
       </c>
       <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
       </c>
       <c r="H27" s="8">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B28" s="8">
-        <v>3</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
       </c>
       <c r="D28" s="8">
-        <v>6</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
       </c>
       <c r="F28" s="8">
-        <v>3</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
       </c>
       <c r="H28" s="8">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B29" s="8">
-        <v>7</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
       </c>
       <c r="D29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
       </c>
       <c r="F29" s="8">
         <v>0</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>27</v>
+      <c r="G29" s="5">
+        <v>0</v>
       </c>
       <c r="H29" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="B30" s="8">
         <v>0</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>27</v>
+      <c r="C30" s="5">
+        <v>0</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>27</v>
+      <c r="E30" s="5">
+        <v>0</v>
       </c>
       <c r="F30" s="8">
-        <v>7</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
       </c>
       <c r="H30" s="8">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="B31" s="8">
         <v>0</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>27</v>
+      <c r="C31" s="5">
+        <v>0</v>
       </c>
       <c r="D31" s="8">
         <v>0</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>27</v>
+      <c r="E31" s="5">
+        <v>0</v>
       </c>
       <c r="F31" s="8">
-        <v>6</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
       </c>
       <c r="H31" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B32" s="8">
         <v>0</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>27</v>
+      <c r="C32" s="5">
+        <v>0</v>
       </c>
       <c r="D32" s="8">
         <v>0</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>27</v>
+      <c r="E32" s="5">
+        <v>0</v>
       </c>
       <c r="F32" s="8">
-        <v>6</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
       </c>
       <c r="H32" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="B33" s="8">
-        <v>3</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
       </c>
       <c r="D33" s="8">
         <v>0</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>27</v>
+      <c r="E33" s="5">
+        <v>0</v>
       </c>
       <c r="F33" s="8">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
       </c>
       <c r="H33" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B34" s="8">
         <v>0</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>27</v>
+      <c r="C34" s="5">
+        <v>0</v>
       </c>
       <c r="D34" s="8">
         <v>0</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>27</v>
+      <c r="E34" s="5">
+        <v>0</v>
       </c>
       <c r="F34" s="8">
-        <v>3</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
       </c>
       <c r="H34" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B35" s="8">
         <v>0</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>27</v>
+      <c r="C35" s="5">
+        <v>0</v>
       </c>
       <c r="D35" s="8">
         <v>0</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>27</v>
+      <c r="E35" s="5">
+        <v>0</v>
       </c>
       <c r="F35" s="8">
-        <v>2</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
       </c>
       <c r="H35" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="B36" s="8">
-        <v>1</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
       </c>
       <c r="D36" s="8">
         <v>0</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>27</v>
+      <c r="E36" s="5">
+        <v>0</v>
       </c>
       <c r="F36" s="8">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
       </c>
       <c r="H36" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="B37" s="8">
         <v>0</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>27</v>
+      <c r="C37" s="5">
+        <v>0</v>
       </c>
       <c r="D37" s="8">
         <v>0</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>27</v>
+      <c r="E37" s="5">
+        <v>0</v>
       </c>
       <c r="F37" s="8">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
       </c>
       <c r="H37" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="B38" s="8">
         <v>0</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>27</v>
+      <c r="C38" s="5">
+        <v>0</v>
       </c>
       <c r="D38" s="8">
         <v>0</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>27</v>
+      <c r="E38" s="5">
+        <v>0</v>
       </c>
       <c r="F38" s="8">
         <v>0</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>27</v>
+      <c r="G38" s="5">
+        <v>0</v>
       </c>
       <c r="H38" s="8">
         <v>0</v>
@@ -1703,36 +1570,55 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="B39" s="8">
-        <v>776</v>
+        <v>0</v>
       </c>
       <c r="C39" s="5">
-        <v>100</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
       </c>
       <c r="E39" s="5">
-        <v>100</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1</v>
       </c>
       <c r="G39" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H39" s="13">
-        <v>13531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="4"/>
+      <c r="A40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="9">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="9">
+        <v>33</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="10">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="10">
+        <v>38</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
